--- a/Code/Results/Cases/Case_3_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9896369056686349</v>
+        <v>1.030514092294297</v>
       </c>
       <c r="D2">
-        <v>1.012386871421177</v>
+        <v>1.038837503113702</v>
       </c>
       <c r="E2">
-        <v>0.9972890711951983</v>
+        <v>1.030182920204198</v>
       </c>
       <c r="F2">
-        <v>1.012791200390119</v>
+        <v>1.04751285351414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039626244411103</v>
+        <v>1.032821483893285</v>
       </c>
       <c r="J2">
-        <v>1.012132055731636</v>
+        <v>1.035654917450162</v>
       </c>
       <c r="K2">
-        <v>1.023676293162353</v>
+        <v>1.04162439917533</v>
       </c>
       <c r="L2">
-        <v>1.008786303212319</v>
+        <v>1.032994671139967</v>
       </c>
       <c r="M2">
-        <v>1.024075163957803</v>
+        <v>1.050275282250775</v>
       </c>
       <c r="N2">
-        <v>1.007460749104868</v>
+        <v>1.015786072005686</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.995614125214245</v>
+        <v>1.031744729451569</v>
       </c>
       <c r="D3">
-        <v>1.017033304078506</v>
+        <v>1.039811002195391</v>
       </c>
       <c r="E3">
-        <v>1.00216940411382</v>
+        <v>1.031236808988346</v>
       </c>
       <c r="F3">
-        <v>1.018401496968219</v>
+        <v>1.048723766484677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041127825695781</v>
+        <v>1.033054304476766</v>
       </c>
       <c r="J3">
-        <v>1.01622507189896</v>
+        <v>1.036525606524905</v>
       </c>
       <c r="K3">
-        <v>1.027452782487117</v>
+        <v>1.04240756229441</v>
       </c>
       <c r="L3">
-        <v>1.012774602061982</v>
+        <v>1.033856201305355</v>
       </c>
       <c r="M3">
-        <v>1.028804219105719</v>
+        <v>1.051297020078623</v>
       </c>
       <c r="N3">
-        <v>1.008881890884738</v>
+        <v>1.016082382429905</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9993848010782322</v>
+        <v>1.032540738531023</v>
       </c>
       <c r="D4">
-        <v>1.019966768702123</v>
+        <v>1.040440436168522</v>
       </c>
       <c r="E4">
-        <v>1.005254637408122</v>
+        <v>1.03191880723601</v>
       </c>
       <c r="F4">
-        <v>1.021946654267741</v>
+        <v>1.049507271287637</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042063215867302</v>
+        <v>1.033203362106256</v>
       </c>
       <c r="J4">
-        <v>1.018804256809319</v>
+        <v>1.037088229512234</v>
       </c>
       <c r="K4">
-        <v>1.029830040053812</v>
+        <v>1.042913223081675</v>
       </c>
       <c r="L4">
-        <v>1.015290054599131</v>
+        <v>1.034413136854964</v>
       </c>
       <c r="M4">
-        <v>1.031787226146416</v>
+        <v>1.051957550637025</v>
       </c>
       <c r="N4">
-        <v>1.009776519716604</v>
+        <v>1.016273654327489</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000947846856246</v>
+        <v>1.032875312319155</v>
       </c>
       <c r="D5">
-        <v>1.021183231841605</v>
+        <v>1.040704935065175</v>
       </c>
       <c r="E5">
-        <v>1.006535040989728</v>
+        <v>1.032205535255764</v>
       </c>
       <c r="F5">
-        <v>1.023417570884207</v>
+        <v>1.049836649430074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042448055581407</v>
+        <v>1.033265644873019</v>
       </c>
       <c r="J5">
-        <v>1.019872657204485</v>
+        <v>1.037324572869677</v>
       </c>
       <c r="K5">
-        <v>1.03081417938153</v>
+        <v>1.043125540954408</v>
       </c>
       <c r="L5">
-        <v>1.016332590717308</v>
+        <v>1.034647146294582</v>
       </c>
       <c r="M5">
-        <v>1.033023621800093</v>
+        <v>1.052235094848545</v>
       </c>
       <c r="N5">
-        <v>1.010146884511054</v>
+        <v>1.016353955038827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001209020287386</v>
+        <v>1.032931484784578</v>
       </c>
       <c r="D6">
-        <v>1.02138651863309</v>
+        <v>1.04074933886972</v>
       </c>
       <c r="E6">
-        <v>1.006749072705361</v>
+        <v>1.0322536791218</v>
       </c>
       <c r="F6">
-        <v>1.023663427781422</v>
+        <v>1.049891953087741</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042512187067903</v>
+        <v>1.033276080085918</v>
       </c>
       <c r="J6">
-        <v>1.020051133943579</v>
+        <v>1.037364245244046</v>
       </c>
       <c r="K6">
-        <v>1.030978543492293</v>
+        <v>1.043161174728349</v>
       </c>
       <c r="L6">
-        <v>1.016506778220776</v>
+        <v>1.034686430137258</v>
       </c>
       <c r="M6">
-        <v>1.033230204059419</v>
+        <v>1.052281687405223</v>
       </c>
       <c r="N6">
-        <v>1.010208740497358</v>
+        <v>1.016367431440526</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.999405772227032</v>
+        <v>1.032545209388359</v>
       </c>
       <c r="D7">
-        <v>1.019983088084482</v>
+        <v>1.040443970866968</v>
       </c>
       <c r="E7">
-        <v>1.005271810581624</v>
+        <v>1.031922638445681</v>
       </c>
       <c r="F7">
-        <v>1.021966384072481</v>
+        <v>1.049511672481163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042068390761819</v>
+        <v>1.033204195828606</v>
       </c>
       <c r="J7">
-        <v>1.018818594374812</v>
+        <v>1.037091388262621</v>
       </c>
       <c r="K7">
-        <v>1.02984324932511</v>
+        <v>1.04291606111146</v>
       </c>
       <c r="L7">
-        <v>1.015304042959969</v>
+        <v>1.034416264195304</v>
       </c>
       <c r="M7">
-        <v>1.03180381533028</v>
+        <v>1.051961259755973</v>
       </c>
       <c r="N7">
-        <v>1.00978149079291</v>
+        <v>1.016274727741339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9916776851213932</v>
+        <v>1.030930054445627</v>
       </c>
       <c r="D8">
-        <v>1.013972744545506</v>
+        <v>1.039166602701117</v>
       </c>
       <c r="E8">
-        <v>0.9989539278680351</v>
+        <v>1.030539074781126</v>
       </c>
       <c r="F8">
-        <v>1.014705403980101</v>
+        <v>1.047922095787203</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040141385311691</v>
+        <v>1.032900496675647</v>
       </c>
       <c r="J8">
-        <v>1.013530085548658</v>
+        <v>1.035949331306338</v>
       </c>
       <c r="K8">
-        <v>1.024966714885483</v>
+        <v>1.041889300776343</v>
       </c>
       <c r="L8">
-        <v>1.010148087534792</v>
+        <v>1.033285940135241</v>
       </c>
       <c r="M8">
-        <v>1.025689798461181</v>
+        <v>1.050620708804761</v>
       </c>
       <c r="N8">
-        <v>1.007946341961034</v>
+        <v>1.015886307093325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9772648002657219</v>
+        <v>1.028081578872156</v>
       </c>
       <c r="D9">
-        <v>1.002786440411986</v>
+        <v>1.036911957911112</v>
       </c>
       <c r="E9">
-        <v>0.9872271379193779</v>
+        <v>1.028101478373122</v>
       </c>
       <c r="F9">
-        <v>1.001215272479008</v>
+        <v>1.045120706425106</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036454822519257</v>
+        <v>1.032353128080892</v>
       </c>
       <c r="J9">
-        <v>1.003646756322023</v>
+        <v>1.033930919244611</v>
       </c>
       <c r="K9">
-        <v>1.01583447075682</v>
+        <v>1.040071563631953</v>
       </c>
       <c r="L9">
-        <v>1.00053090194508</v>
+        <v>1.031290039273731</v>
       </c>
       <c r="M9">
-        <v>1.014288663458274</v>
+        <v>1.048253815553779</v>
       </c>
       <c r="N9">
-        <v>1.004510113181936</v>
+        <v>1.01519831715958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9670416516559689</v>
+        <v>1.026180857481521</v>
       </c>
       <c r="D10">
-        <v>0.9948743831895769</v>
+        <v>1.035406269543669</v>
       </c>
       <c r="E10">
-        <v>0.9789529956437037</v>
+        <v>1.026476619080684</v>
       </c>
       <c r="F10">
-        <v>0.9916875146118311</v>
+        <v>1.043252776306461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033780965891079</v>
+        <v>1.031979986288949</v>
       </c>
       <c r="J10">
-        <v>0.9966268089183978</v>
+        <v>1.032581221750401</v>
       </c>
       <c r="K10">
-        <v>1.009336803053544</v>
+        <v>1.038853990789093</v>
       </c>
       <c r="L10">
-        <v>0.9937129505912311</v>
+        <v>1.029956592247961</v>
       </c>
       <c r="M10">
-        <v>1.006208493198577</v>
+        <v>1.046672660144735</v>
       </c>
       <c r="N10">
-        <v>1.002065714349317</v>
+        <v>1.014737254048741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9624489373595573</v>
+        <v>1.025357378627392</v>
       </c>
       <c r="D11">
-        <v>0.9913269391028634</v>
+        <v>1.034753659838803</v>
       </c>
       <c r="E11">
-        <v>0.9752476546501112</v>
+        <v>1.0257730677122</v>
       </c>
       <c r="F11">
-        <v>0.987418360720709</v>
+        <v>1.042443838725482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032566720047679</v>
+        <v>1.031816455254422</v>
       </c>
       <c r="J11">
-        <v>0.9934718469560331</v>
+        <v>1.031995799105675</v>
       </c>
       <c r="K11">
-        <v>1.006414291320614</v>
+        <v>1.038325389942416</v>
       </c>
       <c r="L11">
-        <v>0.9906519636189773</v>
+        <v>1.02937850292245</v>
       </c>
       <c r="M11">
-        <v>1.002581513835967</v>
+        <v>1.045987217136144</v>
       </c>
       <c r="N11">
-        <v>1.000966442251149</v>
+        <v>1.014537033646018</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9607161257419078</v>
+        <v>1.025051430747514</v>
       </c>
       <c r="D12">
-        <v>0.9899897154464369</v>
+        <v>1.03451115445568</v>
       </c>
       <c r="E12">
-        <v>0.973851547585324</v>
+        <v>1.025511739283771</v>
       </c>
       <c r="F12">
-        <v>0.9858094401316619</v>
+        <v>1.042143344428073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032106722445737</v>
+        <v>1.031755417889844</v>
       </c>
       <c r="J12">
-        <v>0.9922813958907905</v>
+        <v>1.031778195912641</v>
       </c>
       <c r="K12">
-        <v>1.005311242849474</v>
+        <v>1.038128834763067</v>
       </c>
       <c r="L12">
-        <v>0.9894974626227953</v>
+        <v>1.029163668399871</v>
       </c>
       <c r="M12">
-        <v>1.001213653994599</v>
+        <v>1.045732492226368</v>
       </c>
       <c r="N12">
-        <v>1.000551570973559</v>
+        <v>1.014462575709426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9610890689397525</v>
+        <v>1.025117060874557</v>
       </c>
       <c r="D13">
-        <v>0.9902774611109504</v>
+        <v>1.034563177099646</v>
       </c>
       <c r="E13">
-        <v>0.9741519356522185</v>
+        <v>1.025567795060392</v>
       </c>
       <c r="F13">
-        <v>0.9861556347785285</v>
+        <v>1.042207802362406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032205807956863</v>
+        <v>1.031768523953066</v>
       </c>
       <c r="J13">
-        <v>0.9925376127089769</v>
+        <v>1.031824879403935</v>
       </c>
       <c r="K13">
-        <v>1.005548661574518</v>
+        <v>1.03817100600947</v>
       </c>
       <c r="L13">
-        <v>0.989745919673082</v>
+        <v>1.029209755974316</v>
       </c>
       <c r="M13">
-        <v>1.00150802208411</v>
+        <v>1.045787137082634</v>
       </c>
       <c r="N13">
-        <v>1.000640865967078</v>
+        <v>1.014478551141548</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9623062626764446</v>
+        <v>1.0253320903492</v>
       </c>
       <c r="D14">
-        <v>0.9912168104333768</v>
+        <v>1.034733616256877</v>
       </c>
       <c r="E14">
-        <v>0.9751326638324417</v>
+        <v>1.025751466194064</v>
       </c>
       <c r="F14">
-        <v>0.9872858492326702</v>
+        <v>1.042419000170121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032528882558979</v>
+        <v>1.031811415900431</v>
       </c>
       <c r="J14">
-        <v>0.9933738300737972</v>
+        <v>1.031977815051332</v>
       </c>
       <c r="K14">
-        <v>1.006323476833841</v>
+        <v>1.038309146907489</v>
       </c>
       <c r="L14">
-        <v>0.9905568966871737</v>
+        <v>1.029360746813449</v>
       </c>
       <c r="M14">
-        <v>1.00246887556805</v>
+        <v>1.045966163971675</v>
       </c>
       <c r="N14">
-        <v>1.000932285101308</v>
+        <v>1.014530880710613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9630525938873398</v>
+        <v>1.025464567586029</v>
       </c>
       <c r="D15">
-        <v>0.9917929437471666</v>
+        <v>1.034838616539907</v>
       </c>
       <c r="E15">
-        <v>0.9757342589789388</v>
+        <v>1.025864632240624</v>
       </c>
       <c r="F15">
-        <v>0.9879790913994261</v>
+        <v>1.042549123547263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032726734983667</v>
+        <v>1.03183780398598</v>
       </c>
       <c r="J15">
-        <v>0.99388655296592</v>
+        <v>1.032072023670154</v>
       </c>
       <c r="K15">
-        <v>1.006798511965639</v>
+        <v>1.038394232299374</v>
       </c>
       <c r="L15">
-        <v>0.9910542085339386</v>
+        <v>1.029453763106337</v>
       </c>
       <c r="M15">
-        <v>1.003058110885349</v>
+        <v>1.046076452277168</v>
       </c>
       <c r="N15">
-        <v>1.001110956537254</v>
+        <v>1.014563111120946</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9673427967504371</v>
+        <v>1.026235499243739</v>
       </c>
       <c r="D16">
-        <v>0.9951071484024397</v>
+        <v>1.035449567564505</v>
       </c>
       <c r="E16">
-        <v>0.9791962110222456</v>
+        <v>1.026523311821351</v>
       </c>
       <c r="F16">
-        <v>0.9919676866475575</v>
+        <v>1.04330646030033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033860321189259</v>
+        <v>1.031990798009129</v>
       </c>
       <c r="J16">
-        <v>0.9968336616336777</v>
+        <v>1.032620053219746</v>
       </c>
       <c r="K16">
-        <v>1.009528370975197</v>
+        <v>1.038889043013185</v>
       </c>
       <c r="L16">
-        <v>0.9939137090815025</v>
+        <v>1.02999494329547</v>
       </c>
       <c r="M16">
-        <v>1.006446388204588</v>
+        <v>1.046718133891647</v>
       </c>
       <c r="N16">
-        <v>1.002137774383518</v>
+        <v>1.014750529819864</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9699881762402285</v>
+        <v>1.026718960677008</v>
       </c>
       <c r="D17">
-        <v>0.9971526645426623</v>
+        <v>1.035832629534184</v>
       </c>
       <c r="E17">
-        <v>0.9813340628535556</v>
+        <v>1.02693648923366</v>
       </c>
       <c r="F17">
-        <v>0.9944301097153713</v>
+        <v>1.043781486295416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034555944615142</v>
+        <v>1.032086242531993</v>
       </c>
       <c r="J17">
-        <v>0.9986506051874733</v>
+        <v>1.032963550155783</v>
       </c>
       <c r="K17">
-        <v>1.011210802731067</v>
+        <v>1.039199053244864</v>
       </c>
       <c r="L17">
-        <v>0.9956774852645435</v>
+        <v>1.030334223375566</v>
       </c>
       <c r="M17">
-        <v>1.008536509218961</v>
+        <v>1.04712043041208</v>
       </c>
       <c r="N17">
-        <v>1.00277065583581</v>
+        <v>1.014867937797974</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9715153027953572</v>
+        <v>1.027000911954</v>
       </c>
       <c r="D18">
-        <v>0.9983341532189909</v>
+        <v>1.036056001765119</v>
       </c>
       <c r="E18">
-        <v>0.9825693069643828</v>
+        <v>1.027177491000912</v>
       </c>
       <c r="F18">
-        <v>0.9958526626400073</v>
+        <v>1.044058550306281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034956279235064</v>
+        <v>1.032141724803698</v>
       </c>
       <c r="J18">
-        <v>0.9996993648250181</v>
+        <v>1.033163810247657</v>
       </c>
       <c r="K18">
-        <v>1.012181703436002</v>
+        <v>1.039379743549689</v>
       </c>
       <c r="L18">
-        <v>0.9966958565415912</v>
+        <v>1.030532052468538</v>
       </c>
       <c r="M18">
-        <v>1.009743370608016</v>
+        <v>1.047355006847257</v>
       </c>
       <c r="N18">
-        <v>1.003135895606113</v>
+        <v>1.014936364242309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9720333756669411</v>
+        <v>1.027097042747464</v>
       </c>
       <c r="D19">
-        <v>0.9987350756108162</v>
+        <v>1.036132155562385</v>
       </c>
       <c r="E19">
-        <v>0.9829885431023951</v>
+        <v>1.027259666827179</v>
       </c>
       <c r="F19">
-        <v>0.9963354323982997</v>
+        <v>1.044153020236618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035091879399249</v>
+        <v>1.032160610797</v>
       </c>
       <c r="J19">
-        <v>1.000055129039437</v>
+        <v>1.033232077555635</v>
       </c>
       <c r="K19">
-        <v>1.012511018196859</v>
+        <v>1.039441331685745</v>
       </c>
       <c r="L19">
-        <v>0.99704136294852</v>
+        <v>1.030599495718503</v>
       </c>
       <c r="M19">
-        <v>1.010152837415434</v>
+        <v>1.047434978459292</v>
       </c>
       <c r="N19">
-        <v>1.003259781885242</v>
+        <v>1.014959686467583</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9697060077722912</v>
+        <v>1.02666709437286</v>
       </c>
       <c r="D20">
-        <v>0.9969344115394765</v>
+        <v>1.035791536965514</v>
       </c>
       <c r="E20">
-        <v>0.9811059141548424</v>
+        <v>1.026892158975002</v>
       </c>
       <c r="F20">
-        <v>0.9941673469259925</v>
+        <v>1.043730521616129</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034481873866405</v>
+        <v>1.032076021780878</v>
       </c>
       <c r="J20">
-        <v>0.998456814072837</v>
+        <v>1.032926706113841</v>
       </c>
       <c r="K20">
-        <v>1.011031380664529</v>
+        <v>1.039165805891919</v>
       </c>
       <c r="L20">
-        <v>0.9954893335865113</v>
+        <v>1.030297828800637</v>
       </c>
       <c r="M20">
-        <v>1.008313537758135</v>
+        <v>1.047077275710983</v>
       </c>
       <c r="N20">
-        <v>1.002703160891166</v>
+        <v>1.014855346792193</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9619485877807237</v>
+        <v>1.025268771516847</v>
       </c>
       <c r="D21">
-        <v>0.990940746051627</v>
+        <v>1.03468342886455</v>
       </c>
       <c r="E21">
-        <v>0.9748444214233438</v>
+        <v>1.025697379584554</v>
       </c>
       <c r="F21">
-        <v>0.9869536823797382</v>
+        <v>1.042356808217372</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032433997025114</v>
+        <v>1.031798793428699</v>
       </c>
       <c r="J21">
-        <v>0.9931281077555855</v>
+        <v>1.031932783501441</v>
       </c>
       <c r="K21">
-        <v>1.00609580566196</v>
+        <v>1.038268473644717</v>
       </c>
       <c r="L21">
-        <v>0.9903185776524631</v>
+        <v>1.0293162867245</v>
       </c>
       <c r="M21">
-        <v>1.002186509615644</v>
+        <v>1.045913448365928</v>
       </c>
       <c r="N21">
-        <v>1.000846653884296</v>
+        <v>1.014515473366766</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9569146049269541</v>
+        <v>1.024389177206126</v>
       </c>
       <c r="D22">
-        <v>0.9870584714321444</v>
+        <v>1.033986154927301</v>
       </c>
       <c r="E22">
-        <v>0.9707923639892978</v>
+        <v>1.024946184391882</v>
       </c>
       <c r="F22">
-        <v>0.9822832190149621</v>
+        <v>1.041492989901769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031094222227379</v>
+        <v>1.031622783933831</v>
       </c>
       <c r="J22">
-        <v>0.9896696620766108</v>
+        <v>1.031306989507024</v>
       </c>
       <c r="K22">
-        <v>1.002890737138046</v>
+        <v>1.037703073669603</v>
       </c>
       <c r="L22">
-        <v>0.9869655173756243</v>
+        <v>1.02869853585115</v>
       </c>
       <c r="M22">
-        <v>0.9982140129527984</v>
+        <v>1.045181003770623</v>
       </c>
       <c r="N22">
-        <v>0.9996412437643197</v>
+        <v>1.014301276913624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9595987547411844</v>
+        <v>1.024855506955768</v>
       </c>
       <c r="D23">
-        <v>0.9891277942872335</v>
+        <v>1.034355846820519</v>
       </c>
       <c r="E23">
-        <v>0.9729518477557516</v>
+        <v>1.025344406777216</v>
       </c>
       <c r="F23">
-        <v>0.9847724871020238</v>
+        <v>1.041950927485146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031809586892738</v>
+        <v>1.031716251669606</v>
       </c>
       <c r="J23">
-        <v>0.9915137409271036</v>
+        <v>1.0316388182951</v>
       </c>
       <c r="K23">
-        <v>1.004599866958739</v>
+        <v>1.038002918204844</v>
       </c>
       <c r="L23">
-        <v>0.9887531296792545</v>
+        <v>1.029026076224647</v>
       </c>
       <c r="M23">
-        <v>1.000331797404526</v>
+        <v>1.045569353487125</v>
       </c>
       <c r="N23">
-        <v>1.000284021594769</v>
+        <v>1.014414874489196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9698335564838025</v>
+        <v>1.026690530657818</v>
       </c>
       <c r="D24">
-        <v>0.9970330665101437</v>
+        <v>1.035810105118088</v>
       </c>
       <c r="E24">
-        <v>0.9812090408759493</v>
+        <v>1.026912189903455</v>
       </c>
       <c r="F24">
-        <v>0.9942861204529502</v>
+        <v>1.043753550393805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034515359933843</v>
+        <v>1.032080640682077</v>
       </c>
       <c r="J24">
-        <v>0.9985444139390078</v>
+        <v>1.032943354646681</v>
       </c>
       <c r="K24">
-        <v>1.011112485932097</v>
+        <v>1.039180829351891</v>
       </c>
       <c r="L24">
-        <v>0.9955743833128482</v>
+        <v>1.030314274150258</v>
       </c>
       <c r="M24">
-        <v>1.008414326782537</v>
+        <v>1.0470967756987</v>
       </c>
       <c r="N24">
-        <v>1.002733671001297</v>
+        <v>1.014861036297688</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9810928856051754</v>
+        <v>1.028818273580461</v>
       </c>
       <c r="D25">
-        <v>1.005754213088684</v>
+        <v>1.037495289698752</v>
       </c>
       <c r="E25">
-        <v>0.9903347339967847</v>
+        <v>1.028731613666942</v>
       </c>
       <c r="F25">
-        <v>1.004791719313267</v>
+        <v>1.045844984769203</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037444368013126</v>
+        <v>1.032496085080712</v>
       </c>
       <c r="J25">
-        <v>1.006273744259965</v>
+        <v>1.034453441970432</v>
       </c>
       <c r="K25">
-        <v>1.01826385424609</v>
+        <v>1.040542500682636</v>
       </c>
       <c r="L25">
-        <v>1.003084966946449</v>
+        <v>1.031806523839726</v>
       </c>
       <c r="M25">
-        <v>1.01731610264644</v>
+        <v>1.048866276574539</v>
       </c>
       <c r="N25">
-        <v>1.005424156018416</v>
+        <v>1.015376601073277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030514092294297</v>
+        <v>0.9896369056686347</v>
       </c>
       <c r="D2">
-        <v>1.038837503113702</v>
+        <v>1.012386871421177</v>
       </c>
       <c r="E2">
-        <v>1.030182920204198</v>
+        <v>0.9972890711951981</v>
       </c>
       <c r="F2">
-        <v>1.04751285351414</v>
+        <v>1.012791200390119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032821483893285</v>
+        <v>1.039626244411103</v>
       </c>
       <c r="J2">
-        <v>1.035654917450162</v>
+        <v>1.012132055731636</v>
       </c>
       <c r="K2">
-        <v>1.04162439917533</v>
+        <v>1.023676293162353</v>
       </c>
       <c r="L2">
-        <v>1.032994671139967</v>
+        <v>1.008786303212319</v>
       </c>
       <c r="M2">
-        <v>1.050275282250775</v>
+        <v>1.024075163957804</v>
       </c>
       <c r="N2">
-        <v>1.015786072005686</v>
+        <v>1.007460749104868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031744729451569</v>
+        <v>0.9956141252142445</v>
       </c>
       <c r="D3">
-        <v>1.039811002195391</v>
+        <v>1.017033304078506</v>
       </c>
       <c r="E3">
-        <v>1.031236808988346</v>
+        <v>1.002169404113819</v>
       </c>
       <c r="F3">
-        <v>1.048723766484677</v>
+        <v>1.018401496968218</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033054304476766</v>
+        <v>1.041127825695781</v>
       </c>
       <c r="J3">
-        <v>1.036525606524905</v>
+        <v>1.016225071898959</v>
       </c>
       <c r="K3">
-        <v>1.04240756229441</v>
+        <v>1.027452782487116</v>
       </c>
       <c r="L3">
-        <v>1.033856201305355</v>
+        <v>1.012774602061982</v>
       </c>
       <c r="M3">
-        <v>1.051297020078623</v>
+        <v>1.028804219105718</v>
       </c>
       <c r="N3">
-        <v>1.016082382429905</v>
+        <v>1.008881890884737</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032540738531023</v>
+        <v>0.9993848010782329</v>
       </c>
       <c r="D4">
-        <v>1.040440436168522</v>
+        <v>1.019966768702123</v>
       </c>
       <c r="E4">
-        <v>1.03191880723601</v>
+        <v>1.005254637408122</v>
       </c>
       <c r="F4">
-        <v>1.049507271287637</v>
+        <v>1.021946654267741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033203362106256</v>
+        <v>1.042063215867302</v>
       </c>
       <c r="J4">
-        <v>1.037088229512234</v>
+        <v>1.018804256809319</v>
       </c>
       <c r="K4">
-        <v>1.042913223081675</v>
+        <v>1.029830040053813</v>
       </c>
       <c r="L4">
-        <v>1.034413136854964</v>
+        <v>1.015290054599132</v>
       </c>
       <c r="M4">
-        <v>1.051957550637025</v>
+        <v>1.031787226146416</v>
       </c>
       <c r="N4">
-        <v>1.016273654327489</v>
+        <v>1.009776519716604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032875312319155</v>
+        <v>1.000947846856246</v>
       </c>
       <c r="D5">
-        <v>1.040704935065175</v>
+        <v>1.021183231841605</v>
       </c>
       <c r="E5">
-        <v>1.032205535255764</v>
+        <v>1.006535040989727</v>
       </c>
       <c r="F5">
-        <v>1.049836649430074</v>
+        <v>1.023417570884207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033265644873019</v>
+        <v>1.042448055581407</v>
       </c>
       <c r="J5">
-        <v>1.037324572869677</v>
+        <v>1.019872657204484</v>
       </c>
       <c r="K5">
-        <v>1.043125540954408</v>
+        <v>1.03081417938153</v>
       </c>
       <c r="L5">
-        <v>1.034647146294582</v>
+        <v>1.016332590717308</v>
       </c>
       <c r="M5">
-        <v>1.052235094848545</v>
+        <v>1.033023621800093</v>
       </c>
       <c r="N5">
-        <v>1.016353955038827</v>
+        <v>1.010146884511054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032931484784578</v>
+        <v>1.001209020287385</v>
       </c>
       <c r="D6">
-        <v>1.04074933886972</v>
+        <v>1.021386518633089</v>
       </c>
       <c r="E6">
-        <v>1.0322536791218</v>
+        <v>1.006749072705359</v>
       </c>
       <c r="F6">
-        <v>1.049891953087741</v>
+        <v>1.02366342778142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033276080085918</v>
+        <v>1.042512187067903</v>
       </c>
       <c r="J6">
-        <v>1.037364245244046</v>
+        <v>1.020051133943577</v>
       </c>
       <c r="K6">
-        <v>1.043161174728349</v>
+        <v>1.030978543492292</v>
       </c>
       <c r="L6">
-        <v>1.034686430137258</v>
+        <v>1.016506778220774</v>
       </c>
       <c r="M6">
-        <v>1.052281687405223</v>
+        <v>1.033230204059417</v>
       </c>
       <c r="N6">
-        <v>1.016367431440526</v>
+        <v>1.010208740497358</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032545209388359</v>
+        <v>0.9994057722270338</v>
       </c>
       <c r="D7">
-        <v>1.040443970866968</v>
+        <v>1.019983088084484</v>
       </c>
       <c r="E7">
-        <v>1.031922638445681</v>
+        <v>1.005271810581625</v>
       </c>
       <c r="F7">
-        <v>1.049511672481163</v>
+        <v>1.021966384072483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033204195828606</v>
+        <v>1.04206839076182</v>
       </c>
       <c r="J7">
-        <v>1.037091388262621</v>
+        <v>1.018818594374813</v>
       </c>
       <c r="K7">
-        <v>1.04291606111146</v>
+        <v>1.029843249325112</v>
       </c>
       <c r="L7">
-        <v>1.034416264195304</v>
+        <v>1.01530404295997</v>
       </c>
       <c r="M7">
-        <v>1.051961259755973</v>
+        <v>1.031803815330282</v>
       </c>
       <c r="N7">
-        <v>1.016274727741339</v>
+        <v>1.00978149079291</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030930054445627</v>
+        <v>0.991677685121394</v>
       </c>
       <c r="D8">
-        <v>1.039166602701117</v>
+        <v>1.013972744545507</v>
       </c>
       <c r="E8">
-        <v>1.030539074781126</v>
+        <v>0.9989539278680354</v>
       </c>
       <c r="F8">
-        <v>1.047922095787203</v>
+        <v>1.014705403980102</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032900496675647</v>
+        <v>1.040141385311691</v>
       </c>
       <c r="J8">
-        <v>1.035949331306338</v>
+        <v>1.013530085548659</v>
       </c>
       <c r="K8">
-        <v>1.041889300776343</v>
+        <v>1.024966714885484</v>
       </c>
       <c r="L8">
-        <v>1.033285940135241</v>
+        <v>1.010148087534793</v>
       </c>
       <c r="M8">
-        <v>1.050620708804761</v>
+        <v>1.025689798461183</v>
       </c>
       <c r="N8">
-        <v>1.015886307093325</v>
+        <v>1.007946341961034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028081578872156</v>
+        <v>0.9772648002657208</v>
       </c>
       <c r="D9">
-        <v>1.036911957911112</v>
+        <v>1.002786440411985</v>
       </c>
       <c r="E9">
-        <v>1.028101478373122</v>
+        <v>0.9872271379193768</v>
       </c>
       <c r="F9">
-        <v>1.045120706425106</v>
+        <v>1.001215272479006</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032353128080892</v>
+        <v>1.036454822519256</v>
       </c>
       <c r="J9">
-        <v>1.033930919244611</v>
+        <v>1.003646756322022</v>
       </c>
       <c r="K9">
-        <v>1.040071563631953</v>
+        <v>1.015834470756819</v>
       </c>
       <c r="L9">
-        <v>1.031290039273731</v>
+        <v>1.000530901945079</v>
       </c>
       <c r="M9">
-        <v>1.048253815553779</v>
+        <v>1.014288663458273</v>
       </c>
       <c r="N9">
-        <v>1.01519831715958</v>
+        <v>1.004510113181936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026180857481521</v>
+        <v>0.9670416516559686</v>
       </c>
       <c r="D10">
-        <v>1.035406269543669</v>
+        <v>0.9948743831895764</v>
       </c>
       <c r="E10">
-        <v>1.026476619080684</v>
+        <v>0.9789529956437034</v>
       </c>
       <c r="F10">
-        <v>1.043252776306461</v>
+        <v>0.9916875146118306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031979986288949</v>
+        <v>1.033780965891079</v>
       </c>
       <c r="J10">
-        <v>1.032581221750401</v>
+        <v>0.9966268089183975</v>
       </c>
       <c r="K10">
-        <v>1.038853990789093</v>
+        <v>1.009336803053543</v>
       </c>
       <c r="L10">
-        <v>1.029956592247961</v>
+        <v>0.9937129505912309</v>
       </c>
       <c r="M10">
-        <v>1.046672660144735</v>
+        <v>1.006208493198577</v>
       </c>
       <c r="N10">
-        <v>1.014737254048741</v>
+        <v>1.002065714349316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025357378627392</v>
+        <v>0.9624489373595569</v>
       </c>
       <c r="D11">
-        <v>1.034753659838803</v>
+        <v>0.9913269391028628</v>
       </c>
       <c r="E11">
-        <v>1.0257730677122</v>
+        <v>0.9752476546501104</v>
       </c>
       <c r="F11">
-        <v>1.042443838725482</v>
+        <v>0.9874183607207087</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031816455254422</v>
+        <v>1.032566720047679</v>
       </c>
       <c r="J11">
-        <v>1.031995799105675</v>
+        <v>0.9934718469560326</v>
       </c>
       <c r="K11">
-        <v>1.038325389942416</v>
+        <v>1.006414291320614</v>
       </c>
       <c r="L11">
-        <v>1.02937850292245</v>
+        <v>0.9906519636189767</v>
       </c>
       <c r="M11">
-        <v>1.045987217136144</v>
+        <v>1.002581513835966</v>
       </c>
       <c r="N11">
-        <v>1.014537033646018</v>
+        <v>1.000966442251149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025051430747514</v>
+        <v>0.9607161257419073</v>
       </c>
       <c r="D12">
-        <v>1.03451115445568</v>
+        <v>0.9899897154464364</v>
       </c>
       <c r="E12">
-        <v>1.025511739283771</v>
+        <v>0.9738515475853236</v>
       </c>
       <c r="F12">
-        <v>1.042143344428073</v>
+        <v>0.9858094401316611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031755417889844</v>
+        <v>1.032106722445737</v>
       </c>
       <c r="J12">
-        <v>1.031778195912641</v>
+        <v>0.9922813958907899</v>
       </c>
       <c r="K12">
-        <v>1.038128834763067</v>
+        <v>1.005311242849474</v>
       </c>
       <c r="L12">
-        <v>1.029163668399871</v>
+        <v>0.9894974626227948</v>
       </c>
       <c r="M12">
-        <v>1.045732492226368</v>
+        <v>1.001213653994598</v>
       </c>
       <c r="N12">
-        <v>1.014462575709426</v>
+        <v>1.000551570973559</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025117060874557</v>
+        <v>0.961089068939753</v>
       </c>
       <c r="D13">
-        <v>1.034563177099646</v>
+        <v>0.9902774611109506</v>
       </c>
       <c r="E13">
-        <v>1.025567795060392</v>
+        <v>0.9741519356522191</v>
       </c>
       <c r="F13">
-        <v>1.042207802362406</v>
+        <v>0.9861556347785287</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031768523953066</v>
+        <v>1.032205807956863</v>
       </c>
       <c r="J13">
-        <v>1.031824879403935</v>
+        <v>0.9925376127089774</v>
       </c>
       <c r="K13">
-        <v>1.03817100600947</v>
+        <v>1.005548661574519</v>
       </c>
       <c r="L13">
-        <v>1.029209755974316</v>
+        <v>0.9897459196730825</v>
       </c>
       <c r="M13">
-        <v>1.045787137082634</v>
+        <v>1.00150802208411</v>
       </c>
       <c r="N13">
-        <v>1.014478551141548</v>
+        <v>1.000640865967078</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0253320903492</v>
+        <v>0.962306262676444</v>
       </c>
       <c r="D14">
-        <v>1.034733616256877</v>
+        <v>0.9912168104333761</v>
       </c>
       <c r="E14">
-        <v>1.025751466194064</v>
+        <v>0.9751326638324408</v>
       </c>
       <c r="F14">
-        <v>1.042419000170121</v>
+        <v>0.9872858492326694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031811415900431</v>
+        <v>1.032528882558979</v>
       </c>
       <c r="J14">
-        <v>1.031977815051332</v>
+        <v>0.9933738300737965</v>
       </c>
       <c r="K14">
-        <v>1.038309146907489</v>
+        <v>1.00632347683384</v>
       </c>
       <c r="L14">
-        <v>1.029360746813449</v>
+        <v>0.9905568966871729</v>
       </c>
       <c r="M14">
-        <v>1.045966163971675</v>
+        <v>1.00246887556805</v>
       </c>
       <c r="N14">
-        <v>1.014530880710613</v>
+        <v>1.000932285101308</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025464567586029</v>
+        <v>0.9630525938873391</v>
       </c>
       <c r="D15">
-        <v>1.034838616539907</v>
+        <v>0.9917929437471664</v>
       </c>
       <c r="E15">
-        <v>1.025864632240624</v>
+        <v>0.9757342589789385</v>
       </c>
       <c r="F15">
-        <v>1.042549123547263</v>
+        <v>0.9879790913994256</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03183780398598</v>
+        <v>1.032726734983667</v>
       </c>
       <c r="J15">
-        <v>1.032072023670154</v>
+        <v>0.9938865529659197</v>
       </c>
       <c r="K15">
-        <v>1.038394232299374</v>
+        <v>1.006798511965638</v>
       </c>
       <c r="L15">
-        <v>1.029453763106337</v>
+        <v>0.991054208533938</v>
       </c>
       <c r="M15">
-        <v>1.046076452277168</v>
+        <v>1.003058110885349</v>
       </c>
       <c r="N15">
-        <v>1.014563111120946</v>
+        <v>1.001110956537254</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026235499243739</v>
+        <v>0.9673427967504366</v>
       </c>
       <c r="D16">
-        <v>1.035449567564505</v>
+        <v>0.9951071484024393</v>
       </c>
       <c r="E16">
-        <v>1.026523311821351</v>
+        <v>0.9791962110222451</v>
       </c>
       <c r="F16">
-        <v>1.04330646030033</v>
+        <v>0.991967686647557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031990798009129</v>
+        <v>1.033860321189259</v>
       </c>
       <c r="J16">
-        <v>1.032620053219746</v>
+        <v>0.9968336616336773</v>
       </c>
       <c r="K16">
-        <v>1.038889043013185</v>
+        <v>1.009528370975196</v>
       </c>
       <c r="L16">
-        <v>1.02999494329547</v>
+        <v>0.993913709081502</v>
       </c>
       <c r="M16">
-        <v>1.046718133891647</v>
+        <v>1.006446388204587</v>
       </c>
       <c r="N16">
-        <v>1.014750529819864</v>
+        <v>1.002137774383518</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026718960677008</v>
+        <v>0.9699881762402269</v>
       </c>
       <c r="D17">
-        <v>1.035832629534184</v>
+        <v>0.997152664542661</v>
       </c>
       <c r="E17">
-        <v>1.02693648923366</v>
+        <v>0.9813340628535541</v>
       </c>
       <c r="F17">
-        <v>1.043781486295416</v>
+        <v>0.9944301097153695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032086242531993</v>
+        <v>1.034555944615141</v>
       </c>
       <c r="J17">
-        <v>1.032963550155783</v>
+        <v>0.998650605187472</v>
       </c>
       <c r="K17">
-        <v>1.039199053244864</v>
+        <v>1.011210802731065</v>
       </c>
       <c r="L17">
-        <v>1.030334223375566</v>
+        <v>0.9956774852645419</v>
       </c>
       <c r="M17">
-        <v>1.04712043041208</v>
+        <v>1.008536509218959</v>
       </c>
       <c r="N17">
-        <v>1.014867937797974</v>
+        <v>1.00277065583581</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027000911954</v>
+        <v>0.9715153027953558</v>
       </c>
       <c r="D18">
-        <v>1.036056001765119</v>
+        <v>0.9983341532189896</v>
       </c>
       <c r="E18">
-        <v>1.027177491000912</v>
+        <v>0.9825693069643817</v>
       </c>
       <c r="F18">
-        <v>1.044058550306281</v>
+        <v>0.995852662640006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032141724803698</v>
+        <v>1.034956279235064</v>
       </c>
       <c r="J18">
-        <v>1.033163810247657</v>
+        <v>0.9996993648250168</v>
       </c>
       <c r="K18">
-        <v>1.039379743549689</v>
+        <v>1.012181703436001</v>
       </c>
       <c r="L18">
-        <v>1.030532052468538</v>
+        <v>0.99669585654159</v>
       </c>
       <c r="M18">
-        <v>1.047355006847257</v>
+        <v>1.009743370608015</v>
       </c>
       <c r="N18">
-        <v>1.014936364242309</v>
+        <v>1.003135895606112</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027097042747464</v>
+        <v>0.9720333756669404</v>
       </c>
       <c r="D19">
-        <v>1.036132155562385</v>
+        <v>0.9987350756108152</v>
       </c>
       <c r="E19">
-        <v>1.027259666827179</v>
+        <v>0.9829885431023941</v>
       </c>
       <c r="F19">
-        <v>1.044153020236618</v>
+        <v>0.9963354323982987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032160610797</v>
+        <v>1.035091879399249</v>
       </c>
       <c r="J19">
-        <v>1.033232077555635</v>
+        <v>1.000055129039436</v>
       </c>
       <c r="K19">
-        <v>1.039441331685745</v>
+        <v>1.012511018196858</v>
       </c>
       <c r="L19">
-        <v>1.030599495718503</v>
+        <v>0.997041362948519</v>
       </c>
       <c r="M19">
-        <v>1.047434978459292</v>
+        <v>1.010152837415433</v>
       </c>
       <c r="N19">
-        <v>1.014959686467583</v>
+        <v>1.003259781885242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02666709437286</v>
+        <v>0.9697060077722914</v>
       </c>
       <c r="D20">
-        <v>1.035791536965514</v>
+        <v>0.9969344115394767</v>
       </c>
       <c r="E20">
-        <v>1.026892158975002</v>
+        <v>0.9811059141548424</v>
       </c>
       <c r="F20">
-        <v>1.043730521616129</v>
+        <v>0.9941673469259925</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032076021780878</v>
+        <v>1.034481873866405</v>
       </c>
       <c r="J20">
-        <v>1.032926706113841</v>
+        <v>0.9984568140728369</v>
       </c>
       <c r="K20">
-        <v>1.039165805891919</v>
+        <v>1.011031380664529</v>
       </c>
       <c r="L20">
-        <v>1.030297828800637</v>
+        <v>0.9954893335865113</v>
       </c>
       <c r="M20">
-        <v>1.047077275710983</v>
+        <v>1.008313537758135</v>
       </c>
       <c r="N20">
-        <v>1.014855346792193</v>
+        <v>1.002703160891166</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025268771516847</v>
+        <v>0.9619485877807238</v>
       </c>
       <c r="D21">
-        <v>1.03468342886455</v>
+        <v>0.9909407460516272</v>
       </c>
       <c r="E21">
-        <v>1.025697379584554</v>
+        <v>0.9748444214233439</v>
       </c>
       <c r="F21">
-        <v>1.042356808217372</v>
+        <v>0.9869536823797387</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031798793428699</v>
+        <v>1.032433997025115</v>
       </c>
       <c r="J21">
-        <v>1.031932783501441</v>
+        <v>0.9931281077555857</v>
       </c>
       <c r="K21">
-        <v>1.038268473644717</v>
+        <v>1.006095805661961</v>
       </c>
       <c r="L21">
-        <v>1.0293162867245</v>
+        <v>0.9903185776524633</v>
       </c>
       <c r="M21">
-        <v>1.045913448365928</v>
+        <v>1.002186509615645</v>
       </c>
       <c r="N21">
-        <v>1.014515473366766</v>
+        <v>1.000846653884296</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024389177206126</v>
+        <v>0.9569146049269545</v>
       </c>
       <c r="D22">
-        <v>1.033986154927301</v>
+        <v>0.987058471432145</v>
       </c>
       <c r="E22">
-        <v>1.024946184391882</v>
+        <v>0.9707923639892985</v>
       </c>
       <c r="F22">
-        <v>1.041492989901769</v>
+        <v>0.9822832190149625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031622783933831</v>
+        <v>1.031094222227379</v>
       </c>
       <c r="J22">
-        <v>1.031306989507024</v>
+        <v>0.9896696620766112</v>
       </c>
       <c r="K22">
-        <v>1.037703073669603</v>
+        <v>1.002890737138046</v>
       </c>
       <c r="L22">
-        <v>1.02869853585115</v>
+        <v>0.986965517375625</v>
       </c>
       <c r="M22">
-        <v>1.045181003770623</v>
+        <v>0.9982140129527989</v>
       </c>
       <c r="N22">
-        <v>1.014301276913624</v>
+        <v>0.9996412437643198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024855506955768</v>
+        <v>0.9595987547411852</v>
       </c>
       <c r="D23">
-        <v>1.034355846820519</v>
+        <v>0.9891277942872343</v>
       </c>
       <c r="E23">
-        <v>1.025344406777216</v>
+        <v>0.9729518477557519</v>
       </c>
       <c r="F23">
-        <v>1.041950927485146</v>
+        <v>0.984772487102025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031716251669606</v>
+        <v>1.031809586892739</v>
       </c>
       <c r="J23">
-        <v>1.0316388182951</v>
+        <v>0.9915137409271043</v>
       </c>
       <c r="K23">
-        <v>1.038002918204844</v>
+        <v>1.004599866958739</v>
       </c>
       <c r="L23">
-        <v>1.029026076224647</v>
+        <v>0.9887531296792552</v>
       </c>
       <c r="M23">
-        <v>1.045569353487125</v>
+        <v>1.000331797404527</v>
       </c>
       <c r="N23">
-        <v>1.014414874489196</v>
+        <v>1.000284021594769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026690530657818</v>
+        <v>0.9698335564838017</v>
       </c>
       <c r="D24">
-        <v>1.035810105118088</v>
+        <v>0.9970330665101428</v>
       </c>
       <c r="E24">
-        <v>1.026912189903455</v>
+        <v>0.9812090408759484</v>
       </c>
       <c r="F24">
-        <v>1.043753550393805</v>
+        <v>0.9942861204529491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032080640682077</v>
+        <v>1.034515359933843</v>
       </c>
       <c r="J24">
-        <v>1.032943354646681</v>
+        <v>0.9985444139390072</v>
       </c>
       <c r="K24">
-        <v>1.039180829351891</v>
+        <v>1.011112485932096</v>
       </c>
       <c r="L24">
-        <v>1.030314274150258</v>
+        <v>0.9955743833128473</v>
       </c>
       <c r="M24">
-        <v>1.0470967756987</v>
+        <v>1.008414326782536</v>
       </c>
       <c r="N24">
-        <v>1.014861036297688</v>
+        <v>1.002733671001297</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028818273580461</v>
+        <v>0.9810928856051746</v>
       </c>
       <c r="D25">
-        <v>1.037495289698752</v>
+        <v>1.005754213088683</v>
       </c>
       <c r="E25">
-        <v>1.028731613666942</v>
+        <v>0.9903347339967837</v>
       </c>
       <c r="F25">
-        <v>1.045844984769203</v>
+        <v>1.004791719313266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032496085080712</v>
+        <v>1.037444368013125</v>
       </c>
       <c r="J25">
-        <v>1.034453441970432</v>
+        <v>1.006273744259964</v>
       </c>
       <c r="K25">
-        <v>1.040542500682636</v>
+        <v>1.018263854246089</v>
       </c>
       <c r="L25">
-        <v>1.031806523839726</v>
+        <v>1.003084966946448</v>
       </c>
       <c r="M25">
-        <v>1.048866276574539</v>
+        <v>1.017316102646439</v>
       </c>
       <c r="N25">
-        <v>1.015376601073277</v>
+        <v>1.005424156018415</v>
       </c>
     </row>
   </sheetData>
